--- a/andfa/and.xlsx
+++ b/andfa/and.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\andfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A65FA-B555-4240-8FCC-52CC8553792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2A45B-69FC-49AB-8A25-64460BFBD9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16572" yWindow="264" windowWidth="13524" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3756" yWindow="132" windowWidth="17640" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>and gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +123,22 @@
   </si>
   <si>
     <t>wn=588n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full adder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise/fall at a0to1,b1,c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay at a0to1 b0c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +821,361 @@
         <v>155</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="G15" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="L15" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="N15" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="O15" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G16" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O16" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="P16" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>538</v>
+      </c>
+      <c r="D17" s="1">
+        <v>398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>221</v>
+      </c>
+      <c r="F17" s="1">
+        <v>221</v>
+      </c>
+      <c r="G17" s="1">
+        <v>184</v>
+      </c>
+      <c r="I17" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J17" s="1">
+        <v>84</v>
+      </c>
+      <c r="K17" s="1">
+        <v>79</v>
+      </c>
+      <c r="L17" s="1">
+        <v>69</v>
+      </c>
+      <c r="M17" s="1">
+        <v>79</v>
+      </c>
+      <c r="N17" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="O17" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>271</v>
+      </c>
+      <c r="D19" s="1">
+        <v>159</v>
+      </c>
+      <c r="E19" s="1">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1">
+        <v>98</v>
+      </c>
+      <c r="G19" s="1">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>290</v>
+      </c>
+      <c r="D20" s="1">
+        <v>175</v>
+      </c>
+      <c r="E20" s="1">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D21" s="1">
+        <v>727</v>
+      </c>
+      <c r="E21" s="1">
+        <v>377</v>
+      </c>
+      <c r="F21" s="1">
+        <v>377</v>
+      </c>
+      <c r="G21" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>544</v>
+      </c>
+      <c r="D23" s="1">
+        <v>233</v>
+      </c>
+      <c r="E23" s="1">
+        <v>173</v>
+      </c>
+      <c r="F23" s="1">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>451</v>
+      </c>
+      <c r="D24" s="1">
+        <v>359</v>
+      </c>
+      <c r="E24" s="1">
+        <v>204</v>
+      </c>
+      <c r="F24" s="1">
+        <v>201</v>
+      </c>
+      <c r="G24" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1420</v>
+      </c>
+      <c r="E25" s="1">
+        <v>706</v>
+      </c>
+      <c r="F25" s="1">
+        <v>406</v>
+      </c>
+      <c r="G25" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/andfa/and.xlsx
+++ b/andfa/and.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project\andfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2A45B-69FC-49AB-8A25-64460BFBD9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5319B-5789-4411-B2E6-4D520BFB446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="132" windowWidth="17640" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="180" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>and gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,11 +134,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delay at a0to1 b0c0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mindelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max delay at a0to1 b0c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min delay at abc000to111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,16 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -828,32 +832,8 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>17</v>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -875,30 +855,6 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -922,30 +878,6 @@
       <c r="G15" s="1">
         <v>62.1</v>
       </c>
-      <c r="I15" s="1">
-        <v>55.1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>59.9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>58.9</v>
-      </c>
-      <c r="L15" s="1">
-        <v>57.1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>60.9</v>
-      </c>
-      <c r="N15" s="1">
-        <v>54.9</v>
-      </c>
-      <c r="O15" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="P15" s="1">
-        <v>65.3</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -966,32 +898,8 @@
       <c r="G16" s="1">
         <v>58.7</v>
       </c>
-      <c r="I16" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="K16" s="1">
-        <v>26.7</v>
-      </c>
-      <c r="L16" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="M16" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="O16" s="1">
-        <v>29.8</v>
-      </c>
-      <c r="P16" s="1">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1010,37 +918,28 @@
       <c r="G17" s="1">
         <v>184</v>
       </c>
-      <c r="I17" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="J17" s="1">
-        <v>84</v>
-      </c>
-      <c r="K17" s="1">
-        <v>79</v>
-      </c>
-      <c r="L17" s="1">
-        <v>69</v>
-      </c>
-      <c r="M17" s="1">
-        <v>79</v>
-      </c>
-      <c r="N17" s="1">
-        <v>68.7</v>
-      </c>
-      <c r="O17" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="P17" s="1">
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>177</v>
+      </c>
+      <c r="D18" s="1">
+        <v>131</v>
+      </c>
+      <c r="E18" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F18" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="G18" s="1">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +962,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +982,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1103,12 +1002,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>334</v>
+      </c>
+      <c r="D22" s="1">
+        <v>233</v>
+      </c>
+      <c r="E22" s="1">
+        <v>119</v>
+      </c>
+      <c r="F22" s="1">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1045,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,9 +1085,29 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>674</v>
+      </c>
+      <c r="D26" s="1">
+        <v>451</v>
+      </c>
+      <c r="E26" s="1">
+        <v>196</v>
+      </c>
+      <c r="F26" s="1">
+        <v>213</v>
+      </c>
+      <c r="G26" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/andfa/and.xlsx
+++ b/andfa/and.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\TTLiu Project\TTLiu_Project\andfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDCB51-9424-4952-9E43-B29648A02728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363068BB-686D-42B6-81F5-AF6AAD6CE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>and gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,14 @@
     <t>min delay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>min at a1to0b1c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max delay at a1to0b1c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -187,16 +195,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,6 +1245,1742 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Delay of VDD variation</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5BF-41E7-B7D3-761B934D00B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5BF-41E7-B7D3-761B934D00B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5BF-41E7-B7D3-761B934D00B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="364686752"/>
+        <c:axId val="364680992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="364686752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364680992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364680992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="364686752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+              <a:t>Wn,nand</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wn*1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$32:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C289-4764-A249-E7EC1D51190D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C289-4764-A249-E7EC1D51190D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wn/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C289-4764-A249-E7EC1D51190D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="625106448"/>
+        <c:axId val="625103088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="625106448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625103088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625103088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="625106448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+              <a:t>Wn,nand</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wp*1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$32:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A938-47DD-B50B-C13EEAEC0359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A938-47DD-B50B-C13EEAEC0359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wp/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$32:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A938-47DD-B50B-C13EEAEC0359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="625106448"/>
+        <c:axId val="625103088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="625106448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625103088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625103088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="625106448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5115,62 +6966,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5250,62 +7047,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5385,62 +7128,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5657,7 +7346,1063 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.8V Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-359A-4602-BB18-3FE0CEC6C620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-359A-4602-BB18-3FE0CEC6C620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-359A-4602-BB18-3FE0CEC6C620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$31:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-359A-4602-BB18-3FE0CEC6C620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>rise time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fall time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>max delay</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>min delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$31:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-359A-4602-BB18-3FE0CEC6C620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="633417376"/>
+        <c:axId val="633410176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="633417376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633410176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633410176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>unit :</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> ps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633417376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5977,6 +8722,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6480,7 +9265,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6996,7 +9781,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7499,7 +10284,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8002,8 +10787,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8030,8 +10815,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8132,7 +10917,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8164,10 +10949,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8207,22 +10992,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8327,8 +11113,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8460,19 +11246,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8486,6 +11273,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8505,7 +11303,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9008,7 +11806,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9511,8 +12309,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9539,8 +12337,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9641,7 +12439,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9673,6 +12471,1515 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -10008,6 +14315,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10289,16 +15099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>131608</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48392</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260324</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>109521</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58332</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238237</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10320,6 +15130,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>429055</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>77232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>481223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114159</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401E2F91-219A-4F2F-90B0-EAAFD64CFE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>137297</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>115211</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155818</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B22A71A-4FB4-45B7-95A8-A664DD82B10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540742</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518654</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>49705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="圖表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C117E1A6-DC6D-4EDA-8138-E47C40BFAE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8355</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554425</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="圖表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977EA45F-04C2-4AA5-9B79-06856B496F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10591,10 +15553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11014,7 +15976,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -11034,7 +15996,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -11054,7 +16016,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -11077,7 +16039,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -11097,7 +16059,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -11117,7 +16079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
@@ -11137,7 +16099,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11160,7 +16122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -11180,7 +16142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -11200,7 +16162,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -11220,9 +16182,373 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4">
+        <v>148</v>
+      </c>
+      <c r="D31" s="4">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G31" s="5">
+        <v>57.1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7">
+        <v>155</v>
+      </c>
+      <c r="D32" s="7">
+        <v>117</v>
+      </c>
+      <c r="E32" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="F32" s="7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G32" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J32" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="L32" s="1">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="7">
+        <v>639</v>
+      </c>
+      <c r="D33" s="7">
+        <v>416</v>
+      </c>
+      <c r="E33" s="7">
+        <v>263</v>
+      </c>
+      <c r="F33" s="7">
+        <v>259</v>
+      </c>
+      <c r="G33" s="8">
+        <v>218</v>
+      </c>
+      <c r="I33" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="J33" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="10">
+        <v>259</v>
+      </c>
+      <c r="D34" s="10">
+        <v>182</v>
+      </c>
+      <c r="E34" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>101</v>
+      </c>
+      <c r="G34" s="11">
+        <v>70</v>
+      </c>
+      <c r="I34" s="1">
+        <v>249</v>
+      </c>
+      <c r="J34" s="1">
+        <v>304</v>
+      </c>
+      <c r="K34" s="1">
+        <v>278</v>
+      </c>
+      <c r="L34" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4">
+        <v>288</v>
+      </c>
+      <c r="D35" s="4">
+        <v>265</v>
+      </c>
+      <c r="E35" s="4">
+        <v>111</v>
+      </c>
+      <c r="F35" s="4">
+        <v>107</v>
+      </c>
+      <c r="G35" s="5">
+        <v>86.8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J35" s="1">
+        <v>119</v>
+      </c>
+      <c r="K35" s="1">
+        <v>107</v>
+      </c>
+      <c r="L35" s="1">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7">
+        <v>276</v>
+      </c>
+      <c r="D36" s="7">
+        <v>207</v>
+      </c>
+      <c r="E36" s="7">
+        <v>94.7</v>
+      </c>
+      <c r="F36" s="7">
+        <v>104</v>
+      </c>
+      <c r="G36" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1290</v>
+      </c>
+      <c r="D37" s="7">
+        <v>783</v>
+      </c>
+      <c r="E37" s="7">
+        <v>457</v>
+      </c>
+      <c r="F37" s="7">
+        <v>451</v>
+      </c>
+      <c r="G37" s="8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="10">
+        <v>579</v>
+      </c>
+      <c r="D38" s="10">
+        <v>307</v>
+      </c>
+      <c r="E38" s="10">
+        <v>184</v>
+      </c>
+      <c r="F38" s="10">
+        <v>207</v>
+      </c>
+      <c r="G38" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4">
+        <v>593</v>
+      </c>
+      <c r="D39" s="4">
+        <v>318</v>
+      </c>
+      <c r="E39" s="4">
+        <v>188</v>
+      </c>
+      <c r="F39" s="4">
+        <v>187</v>
+      </c>
+      <c r="G39" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="7">
+        <v>530</v>
+      </c>
+      <c r="D40" s="7">
+        <v>308</v>
+      </c>
+      <c r="E40" s="7">
+        <v>161</v>
+      </c>
+      <c r="F40" s="7">
+        <v>181</v>
+      </c>
+      <c r="G40" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2860</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1650</v>
+      </c>
+      <c r="E41" s="7">
+        <v>855</v>
+      </c>
+      <c r="F41" s="7">
+        <v>839</v>
+      </c>
+      <c r="G41" s="8">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1340</v>
+      </c>
+      <c r="D42" s="10">
+        <v>534</v>
+      </c>
+      <c r="E42" s="10">
+        <v>380</v>
+      </c>
+      <c r="F42" s="10">
+        <v>467</v>
+      </c>
+      <c r="G42" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
